--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6EF4CA-F2A6-462C-B6D5-6015879080A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4553085C-C88D-48D6-BBDD-AD2C2464001A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="POSTER" sheetId="4" r:id="rId3"/>
     <sheet name="CATEGORY" sheetId="5" r:id="rId4"/>
     <sheet name="HASHTAGS" sheetId="6" r:id="rId5"/>
+    <sheet name="REPLY" sheetId="7" r:id="rId6"/>
+    <sheet name="REPORT" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="83">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -294,10 +296,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>USER_SWITCH</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -376,10 +374,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NEWS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>POSTED_DATE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -434,6 +428,102 @@
     <rPh sb="0" eb="4">
       <t>イシドヒロシリュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CATEGORY_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュタグ名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HASHTAGS_ID</t>
+  </si>
+  <si>
+    <t>HASHTAGS_NAME</t>
+  </si>
+  <si>
+    <t>USER_NAME_SWITCH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_MODE_SWITCH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信本文</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAIN_SENTENCE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REPLY_SENTENCE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信日時</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REPLY_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REPLIED_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>匿名/実名</t>
+    <rPh sb="0" eb="2">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報ID</t>
+    <rPh sb="0" eb="2">
+      <t>ツウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REPORT_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -891,8 +981,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -914,13 +1004,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -928,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1023,10 +1113,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1036,10 +1126,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1281,7 +1371,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1307,13 +1397,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1321,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1402,15 +1492,15 @@
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1430,7 +1520,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
@@ -1438,7 +1528,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1458,7 +1548,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3">
         <v>15</v>
@@ -1466,7 +1556,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1486,7 +1576,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3">
         <v>15</v>
@@ -1494,7 +1584,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1514,7 +1604,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -1522,7 +1612,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1542,7 +1632,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3">
         <v>30</v>
@@ -1550,7 +1640,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1564,19 +1654,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
@@ -1584,7 +1674,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">USER_SWITCH INT </v>
+        <v xml:space="preserve">USER_MODE_SWITCH INT </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1837,7 +1927,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1863,13 +1953,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1877,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1952,13 +2042,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3">
         <v>50</v>
@@ -1966,7 +2056,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1980,13 +2070,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
@@ -1994,7 +2084,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2008,13 +2098,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3">
         <v>500</v>
@@ -2022,13 +2112,13 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>NEWS VARCHAR (500),</v>
+        <v>MAIN_SENTENCE VARCHAR (500),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2036,13 +2126,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -2062,13 +2152,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -2076,7 +2166,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2090,23 +2180,23 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3">
         <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2382,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6F30AC-B4BA-4D3A-9D60-AA40C3589D13}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2409,13 +2499,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2423,7 +2513,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2437,7 +2527,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2449,7 +2539,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2497,36 +2587,56 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>CATEGORY_ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>CATEGORY_NAME VARCHAR (20)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2869,7 +2979,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2895,13 +3005,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2909,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2923,7 +3033,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2935,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2983,36 +3093,56 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>HASHTAGS_ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>HASHTAGS_NAME VARCHAR (20)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3348,4 +3478,1056 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EAC25F-D8BF-4CF8-8407-1020998853A2}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table REPLY (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>REPLY_ID INT (10)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" ref="L15:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9E51-C029-4FD3-8261-0F873F6A2A9B}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table REPORT (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3">
+        <v>500</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>REPLIED_DATE VARCHAR (20),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>REPLY_ID INT (10),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">USER_NAME_SWITCH INT </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" ref="L17:L31" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4553085C-C88D-48D6-BBDD-AD2C2464001A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD6495B-BF13-49B2-89BE-8113C2F52210}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -981,8 +979,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1370,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1926,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C5265-586A-44B4-BE2F-41D12EB6F7F7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3484,8 +3482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EAC25F-D8BF-4CF8-8407-1020998853A2}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3620,9 +3618,9 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>REPORT_ID INT (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3646,9 +3644,9 @@
       <c r="H11" s="7"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>REPLY_ID INT (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3674,9 +3672,9 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>POSTER_ID INT (10)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3692,9 +3690,9 @@
       <c r="H13" s="7"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3711,8 +3709,8 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  ,</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3729,8 +3727,8 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>REPLY_ID INT (10)</v>
+        <f t="shared" ref="L15:L16" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3747,7 +3745,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3765,7 +3763,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L15:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L17:L29" si="1">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3783,7 +3781,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3801,7 +3799,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3819,7 +3817,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3837,7 +3835,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3855,7 +3853,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3873,7 +3871,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3891,7 +3889,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3909,7 +3907,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3927,7 +3925,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3945,7 +3943,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3963,7 +3961,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3981,7 +3979,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4000,8 +3998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9E51-C029-4FD3-8261-0F873F6A2A9B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4136,9 +4134,9 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>REPLY_ID INT (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4164,9 +4162,9 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>POSTER_ID INT (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4192,9 +4190,9 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="e">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>REPLY_SENTENCE VARCHAR (500),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4220,9 +4218,9 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>REPLIED_DATE VARCHAR (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4247,8 +4245,8 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
-        <v>REPLIED_DATE VARCHAR (20),</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">USER_NAME_SWITCH INT </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4265,8 +4263,8 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>REPLY_ID INT (10),</v>
+        <f t="shared" ref="L15:L16" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4283,8 +4281,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">USER_NAME_SWITCH INT </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -4301,7 +4299,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L31" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L17:L29" si="1">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4319,7 +4317,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4337,7 +4335,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4355,7 +4353,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4373,7 +4371,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4391,7 +4389,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4409,7 +4407,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4427,7 +4425,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4445,7 +4443,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4463,7 +4461,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4481,7 +4479,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4499,7 +4497,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4517,7 +4515,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD6495B-BF13-49B2-89BE-8113C2F52210}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EA207C-FA80-4F69-BD1A-6DE7C6B00A2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="POSTER" sheetId="4" r:id="rId3"/>
     <sheet name="CATEGORY" sheetId="5" r:id="rId4"/>
     <sheet name="HASHTAGS" sheetId="6" r:id="rId5"/>
-    <sheet name="REPLY" sheetId="7" r:id="rId6"/>
-    <sheet name="REPORT" sheetId="8" r:id="rId7"/>
+    <sheet name="REPLY" sheetId="8" r:id="rId6"/>
+    <sheet name="ANIMAL" sheetId="10" r:id="rId7"/>
+    <sheet name="REPORT" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -522,6 +523,49 @@
   </si>
   <si>
     <t>REPORT_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANIMAL_NAME</t>
+  </si>
+  <si>
+    <t>川口陽紀</t>
+    <rPh sb="0" eb="2">
+      <t>カワグチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANIMAL</t>
+  </si>
+  <si>
+    <t>ANIMAL_ID</t>
+  </si>
+  <si>
+    <t>アニマル</t>
+  </si>
+  <si>
+    <t>アニマルID</t>
+  </si>
+  <si>
+    <t>アニマル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANIMAL_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニマルID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -611,7 +655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -635,6 +679,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,7 +1026,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1369,7 +1416,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B12" sqref="B12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1549,7 +1596,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1560,7 +1607,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>USER_ID VARCHAR (15),</v>
+        <v>USER_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1924,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C5265-586A-44B4-BE2F-41D12EB6F7F7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2133,7 +2180,7 @@
         <v>42</v>
       </c>
       <c r="E13" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2142,7 +2189,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>HASHTAGS_ID INT (20),</v>
+        <v>HASHTAGS_ID INT (30),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2200,25 +2247,35 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>POSTER_ID INT (10)</v>
+        <v>POSTER_ID INT (10),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>ANIMAL_ID INT (30)</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2471,7 +2528,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2594,7 +2651,9 @@
       <c r="D10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>30</v>
+      </c>
       <c r="F10" s="7" t="s">
         <v>44</v>
       </c>
@@ -2606,7 +2665,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>CATEGORY_ID INT ,</v>
+        <v>CATEGORY_ID INT (30),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2977,7 +3036,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3100,7 +3159,9 @@
       <c r="D10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>30</v>
+      </c>
       <c r="F10" s="7" t="s">
         <v>44</v>
       </c>
@@ -3112,7 +3173,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>HASHTAGS_ID INT ,</v>
+        <v>HASHTAGS_ID INT (30),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3129,7 +3190,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3140,7 +3201,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>HASHTAGS_NAME VARCHAR (20)</v>
+        <v>HASHTAGS_NAME VARCHAR (50)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3475,15 +3536,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EAC25F-D8BF-4CF8-8407-1020998853A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9E51-C029-4FD3-8261-0F873F6A2A9B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3528,7 +3590,7 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>45084</v>
       </c>
     </row>
@@ -3537,24 +3599,28 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="8">
+        <v>45085</v>
+      </c>
       <c r="F5" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3590,7 +3656,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table REPLY (</v>
+        <v>create table REPORT (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3598,10 +3664,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -3620,7 +3686,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>REPORT_ID INT (10),</v>
+        <v>REPLY_ID INT (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3628,10 +3694,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -3641,12 +3707,14 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>REPLY_ID INT (10),</v>
+        <v>POSTER_ID INT (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3654,18 +3722,18 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>500</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="7" t="s">
         <v>44</v>
@@ -3674,71 +3742,107 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>POSTER_ID INT (10)</v>
+        <v>REPLY_SENTENCE VARCHAR (500),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>REPLIED_DATE VARCHAR (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>USER_NAME_SWITCH INT ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3">
+        <v>30</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L16" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>USER_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3746,7 +3850,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>ANIMAL_ID VARCHAR (10)</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3995,11 +4099,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9E51-C029-4FD3-8261-0F873F6A2A9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D5023F-E6EB-4A9D-889F-6ED7B36FCD0A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4031,7 +4135,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4045,7 +4149,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4053,7 +4157,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4065,7 +4169,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4106,7 +4210,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table REPORT (</v>
+        <v>create table ANIMAL (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4114,16 +4218,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>44</v>
@@ -4136,7 +4240,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>REPLY_ID INT (10),</v>
+        <v>ANIMAL_ID INT (30),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4144,18 +4248,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
         <v>44</v>
@@ -4164,89 +4268,576 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>POSTER_ID INT (10),</v>
+        <v>ANIMAL_NAME VARCHAR (50)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3">
-        <v>500</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>REPLY_SENTENCE VARCHAR (500),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>REPLIED_DATE VARCHAR (20),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">USER_NAME_SWITCH INT </v>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EAC25F-D8BF-4CF8-8407-1020998853A2}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H14:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table REPLY (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>REPORT_ID INT (10),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>REPLY_ID INT (10),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>POSTER_ID INT (10)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EA207C-FA80-4F69-BD1A-6DE7C6B00A2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF79D6B-E9DF-4DA2-84EA-0D543209645E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="USER_PI" sheetId="2" r:id="rId2"/>
+    <sheet name="USER_INFO" sheetId="2" r:id="rId2"/>
     <sheet name="POSTER" sheetId="4" r:id="rId3"/>
     <sheet name="CATEGORY" sheetId="5" r:id="rId4"/>
     <sheet name="HASHTAGS" sheetId="6" r:id="rId5"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="94">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -566,6 +566,17 @@
   </si>
   <si>
     <t>アニマルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動物</t>
+    <rPh sb="0" eb="2">
+      <t>ドウブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANIMAL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1027,7 +1038,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1183,8 +1194,12 @@
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
@@ -1416,7 +1431,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:J12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF79D6B-E9DF-4DA2-84EA-0D543209645E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DED7F5-E6DD-4E50-BDC7-D2E90B572747}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="94">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1037,7 +1037,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B12" sqref="B12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1986,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C5265-586A-44B4-BE2F-41D12EB6F7F7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2290,25 +2290,35 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>ANIMAL_ID INT (30)</v>
+        <v>ANIMAL_ID INT (30),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3">
+        <v>30</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>USER_ID VARCHAR (30)</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2535,6 +2545,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DED7F5-E6DD-4E50-BDC7-D2E90B572747}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525D13A7-609D-4610-99A6-4ED5CD76F1FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="USER_INFO" sheetId="2" r:id="rId2"/>
-    <sheet name="POSTER" sheetId="4" r:id="rId3"/>
-    <sheet name="CATEGORY" sheetId="5" r:id="rId4"/>
-    <sheet name="HASHTAGS" sheetId="6" r:id="rId5"/>
-    <sheet name="REPLY" sheetId="8" r:id="rId6"/>
-    <sheet name="ANIMAL" sheetId="10" r:id="rId7"/>
-    <sheet name="REPORT" sheetId="7" r:id="rId8"/>
+    <sheet name="USER_SQ" sheetId="11" r:id="rId3"/>
+    <sheet name="POSTER" sheetId="4" r:id="rId4"/>
+    <sheet name="CATEGORY" sheetId="5" r:id="rId5"/>
+    <sheet name="HASHTAGS" sheetId="6" r:id="rId6"/>
+    <sheet name="REPLY" sheetId="8" r:id="rId7"/>
+    <sheet name="ANIMAL" sheetId="10" r:id="rId8"/>
+    <sheet name="REPORT" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="100">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -251,16 +252,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>秘密の質問</t>
-    <rPh sb="0" eb="2">
-      <t>ヒミツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>秘密の回答</t>
     <rPh sb="0" eb="2">
       <t>ヒミツ</t>
@@ -287,10 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>USER_SQ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>USER_SA</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -578,6 +565,42 @@
   <si>
     <t>ANIMAL</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_SQ_ID</t>
+  </si>
+  <si>
+    <t>USER_SQ_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問ID</t>
+  </si>
+  <si>
+    <t>秘密の質問ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問</t>
+  </si>
+  <si>
+    <t>秘密の質問名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_SQ</t>
+  </si>
+  <si>
+    <t>USER_SQ_NAME</t>
   </si>
 </sst>
 </file>
@@ -1060,13 +1083,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1074,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1169,10 +1192,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1182,10 +1205,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1195,10 +1218,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1430,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:J12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1457,13 +1480,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1471,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1549,18 +1572,18 @@
         <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1577,10 +1600,10 @@
         <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
@@ -1588,7 +1611,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1605,10 +1628,10 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -1616,7 +1639,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1633,10 +1656,10 @@
         <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3">
         <v>15</v>
@@ -1644,7 +1667,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1658,13 +1681,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -1672,13 +1695,13 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>USER_SQ VARCHAR (100),</v>
+        <v>USER_SQ_ID VARCHAR (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1686,13 +1709,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E15" s="3">
         <v>30</v>
@@ -1700,7 +1723,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1714,19 +1737,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
@@ -1983,11 +2006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C5265-586A-44B4-BE2F-41D12EB6F7F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610AAE74-CE03-4492-93BA-00282068F3E7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2013,13 +2036,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2027,7 +2050,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2041,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2053,7 +2076,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2094,7 +2117,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table POSTER (</v>
+        <v>create table USER_SQ (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2102,27 +2125,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>50</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>TITLE VARCHAR (50),</v>
+        <v>USER_SQ_ID INT (30),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2130,73 +2155,55 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>CATEGORY_ID INT (30),</v>
+        <v>USER_SQ_NAME VARCHAR (50)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3">
-        <v>500</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>MAIN_SENTENCE VARCHAR (500),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="3">
-        <v>30</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="7"/>
@@ -2204,121 +2211,79 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>HASHTAGS_ID INT (30),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3">
-        <v>20</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>POSTED_DATE VARCHAR (20),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="3">
-        <v>10</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>POSTER_ID INT (10),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="3">
-        <v>30</v>
-      </c>
-      <c r="F16" s="7"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>ANIMAL_ID INT (30),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="3">
-        <v>30</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>USER_ID VARCHAR (30)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2550,6 +2515,573 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C5265-586A-44B4-BE2F-41D12EB6F7F7}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table POSTER (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>TITLE VARCHAR (50),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>CATEGORY_ID INT (30),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3">
+        <v>500</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>MAIN_SENTENCE VARCHAR (500),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>HASHTAGS_ID INT (30),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>POSTED_DATE VARCHAR (20),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>POSTER_ID INT (10),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>ANIMAL_ID INT (30),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>USER_ID VARCHAR (30)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6F30AC-B4BA-4D3A-9D60-AA40C3589D13}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -2580,13 +3112,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2594,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2608,7 +3140,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2620,7 +3152,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2669,23 +3201,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2699,13 +3231,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2713,7 +3245,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3057,12 +3589,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3E8A03-6DFB-4332-A545-56CBFC84DAAF}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3088,13 +3620,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3102,7 +3634,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -3116,7 +3648,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3128,7 +3660,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3177,23 +3709,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3207,13 +3739,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -3221,7 +3753,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3566,7 +4098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9E51-C029-4FD3-8261-0F873F6A2A9B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -3597,13 +4129,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3611,7 +4143,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -3631,7 +4163,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3690,23 +4222,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3720,13 +4252,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -3734,7 +4266,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3748,13 +4280,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
         <v>500</v>
@@ -3762,7 +4294,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3776,13 +4308,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -3790,7 +4322,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3804,19 +4336,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -3833,10 +4365,10 @@
         <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3">
         <v>30</v>
@@ -3844,7 +4376,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -3858,13 +4390,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3">
         <v>10</v>
@@ -4124,7 +4656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D5023F-E6EB-4A9D-889F-6ED7B36FCD0A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -4155,13 +4687,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4169,7 +4701,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -4183,7 +4715,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4195,7 +4727,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4244,23 +4776,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4274,13 +4806,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -4288,7 +4820,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4633,7 +5165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EAC25F-D8BF-4CF8-8407-1020998853A2}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -4664,13 +5196,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4678,7 +5210,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -4753,23 +5285,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4783,13 +5315,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -4809,13 +5341,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525D13A7-609D-4610-99A6-4ED5CD76F1FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29BAFD8-441E-42EA-8931-BFBA740558DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1453,7 +1453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -4102,8 +4102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9E51-C029-4FD3-8261-0F873F6A2A9B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4171,7 +4171,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table REPORT (</v>
+        <v>create table REPLY (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5170,7 +5170,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H14:H15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5236,7 +5236,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table REPLY (</v>
+        <v>create table REPORT (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5676,5 +5676,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29BAFD8-441E-42EA-8931-BFBA740558DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D483D999-F35F-49B3-BABE-BB17D0627337}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="107">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -601,6 +601,78 @@
   </si>
   <si>
     <t>USER_SQ_NAME</t>
+  </si>
+  <si>
+    <t>秘密の質問</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリーワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FREE_WORD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAVORITE_SWITCH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:一般
+1:一般モードの管理者
+2:ガチ管理者</t>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:何も指定していない
+1:カテゴリ指定
+2:ハッシュタグ指定
+3:フリーワード指定</t>
+    <rPh sb="2" eb="3">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -689,7 +761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,6 +788,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,7 +1136,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1153,10 +1228,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1166,10 +1241,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1179,10 +1254,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1192,10 +1267,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1205,10 +1280,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1218,10 +1293,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1230,8 +1305,12 @@
       <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
@@ -1453,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1732,7 +1811,7 @@
         <v>USER_SA VARCHAR (30),</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="39" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1754,82 +1833,124 @@
       <c r="I16" s="3">
         <v>0</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">USER_MODE_SWITCH INT </v>
+        <v>USER_MODE_SWITCH INT ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3">
+        <v>30</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>CATEGORY_ID INT (30),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>HASHTAGS_ID INT (30),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3">
+        <v>30</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>FREE_WORD VARCHAR (30),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="52" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="H20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">FAVORITE_SWITCH INT </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2009,7 +2130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610AAE74-CE03-4492-93BA-00282068F3E7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2519,7 +2640,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2634,18 +2755,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>50</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
         <v>42</v>
@@ -2653,8 +2776,8 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>TITLE VARCHAR (50),</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>POSTER_ID INT (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2662,18 +2785,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
         <v>42</v>
@@ -2682,7 +2805,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>CATEGORY_ID INT (30),</v>
+        <v>TITLE VARCHAR (50),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2690,16 +2813,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2710,7 +2833,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>MAIN_SENTENCE VARCHAR (500),</v>
+        <v>CATEGORY_ID INT (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2718,25 +2841,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>HASHTAGS_ID INT (30),</v>
+        <v>MAIN_SENTENCE VARCHAR (500),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2744,27 +2869,25 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>POSTED_DATE VARCHAR (20),</v>
+        <v>HASHTAGS_ID INT (30),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2772,20 +2895,18 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3">
-        <v>10</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="7" t="s">
         <v>42</v>
@@ -2793,8 +2914,8 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>POSTER_ID INT (10),</v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>POSTED_DATE VARCHAR (20),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2821,7 +2942,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>ANIMAL_ID INT (30),</v>
       </c>
     </row>
@@ -3086,7 +3207,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B10" sqref="B10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3594,7 +3715,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B10" sqref="B10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4102,7 +4223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9E51-C029-4FD3-8261-0F873F6A2A9B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D483D999-F35F-49B3-BABE-BB17D0627337}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496BD9C2-A098-4879-AA18-2FEF8D2755F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="60" windowWidth="15210" windowHeight="10140" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1135,8 +1135,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2130,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610AAE74-CE03-4492-93BA-00282068F3E7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2640,7 +2640,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3207,7 +3207,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3714,8 +3714,515 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3E8A03-6DFB-4332-A545-56CBFC84DAAF}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J10"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table HASHTAGS (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>HASHTAGS_ID INT (30),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>HASHTAGS_NAME VARCHAR (50)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9E51-C029-4FD3-8261-0F873F6A2A9B}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3760,7 +4267,7 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>45084</v>
       </c>
     </row>
@@ -3769,24 +4276,28 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="8">
+        <v>45085</v>
+      </c>
       <c r="F5" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3822,7 +4333,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table HASHTAGS (</v>
+        <v>create table REPLY (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3830,16 +4341,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>42</v>
@@ -3852,7 +4363,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>HASHTAGS_ID INT (30),</v>
+        <v>REPLY_ID INT (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3860,18 +4371,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
         <v>42</v>
@@ -3880,97 +4391,143 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>HASHTAGS_NAME VARCHAR (50)</v>
+        <v>POSTER_ID INT (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3">
+        <v>500</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>REPLY_SENTENCE VARCHAR (500),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>REPLIED_DATE VARCHAR (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>USER_NAME_SWITCH INT ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f t="shared" ref="L15:L16" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>USER_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>ANIMAL_ID VARCHAR (10)</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3987,7 +4544,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L17:L29" si="1">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4005,7 +4562,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4023,7 +4580,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4041,7 +4598,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4059,7 +4616,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4077,7 +4634,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4095,7 +4652,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4113,7 +4670,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4131,7 +4688,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4149,7 +4706,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4167,7 +4724,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4185,7 +4742,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4203,7 +4760,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4215,16 +4772,15 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9E51-C029-4FD3-8261-0F873F6A2A9B}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D5023F-E6EB-4A9D-889F-6ED7B36FCD0A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4256,7 +4812,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4269,8 +4825,8 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8">
-        <v>45084</v>
+      <c r="E3" s="5">
+        <v>45085</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4278,28 +4834,24 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8">
-        <v>45085</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -4335,7 +4887,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table REPLY (</v>
+        <v>create table ANIMAL (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4343,16 +4895,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>42</v>
@@ -4365,7 +4917,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>REPLY_ID INT (10),</v>
+        <v>ANIMAL_ID INT (30),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4373,18 +4925,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
         <v>42</v>
@@ -4393,143 +4945,97 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>POSTER_ID INT (10),</v>
+        <v>ANIMAL_NAME VARCHAR (50)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3">
-        <v>500</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>REPLY_SENTENCE VARCHAR (500),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>REPLIED_DATE VARCHAR (20),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>USER_NAME_SWITCH INT ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3">
-        <v>30</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L16" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>USER_ID VARCHAR (30),</v>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="3">
-        <v>10</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>ANIMAL_ID VARCHAR (10)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -4546,7 +5052,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L29" si="1">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4564,7 +5070,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4582,7 +5088,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4600,7 +5106,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4618,7 +5124,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4636,7 +5142,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4654,7 +5160,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4672,7 +5178,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4690,7 +5196,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4708,7 +5214,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4726,7 +5232,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4744,7 +5250,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4762,7 +5268,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4774,15 +5280,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D5023F-E6EB-4A9D-889F-6ED7B36FCD0A}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EAC25F-D8BF-4CF8-8407-1020998853A2}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4814,7 +5321,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4828,7 +5335,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45085</v>
+        <v>45084</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4836,7 +5343,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4848,7 +5355,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4889,7 +5396,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table ANIMAL (</v>
+        <v>create table REPORT (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4897,16 +5404,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>42</v>
@@ -4919,7 +5426,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>ANIMAL_ID INT (30),</v>
+        <v>REPORT_ID INT (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4927,45 +5434,51 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>ANIMAL_NAME VARCHAR (50)</v>
+        <v>REPLY_ID INT (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="3"/>
       <c r="H12" s="7"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>POSTER_ID INT (10)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5012,521 +5525,6 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EAC25F-D8BF-4CF8-8407-1020998853A2}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table REPORT (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>REPORT_ID INT (10),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>REPLY_ID INT (10),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>POSTER_ID INT (10)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496BD9C2-A098-4879-AA18-2FEF8D2755F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A875CF-1A68-4373-907F-4D572ECC6C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="60" windowWidth="15210" windowHeight="10140" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4220" yWindow="1720" windowWidth="14400" windowHeight="7360" tabRatio="881" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="108">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -672,6 +672,10 @@
     <rPh sb="40" eb="42">
       <t>シテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_INFO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1135,7 +1139,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1532,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1599,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1640,7 +1644,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table USER_PI (</v>
+        <v>create table USER_INFO (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1656,7 +1660,9 @@
       <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
@@ -1668,7 +1674,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>USER_EN INT ,</v>
+        <v>USER_EN INT (20),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A875CF-1A68-4373-907F-4D572ECC6C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61350E6E-D58F-4752-9574-803D24E833DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="1720" windowWidth="14400" windowHeight="7360" tabRatio="881" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="109">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -676,6 +676,13 @@
   </si>
   <si>
     <t>USER_INFO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複なし</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウフク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1140,7 +1147,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1195,7 +1202,7 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -1536,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1596,7 +1603,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1608,7 +1617,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45086</v>
+      </c>
       <c r="F5" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1658,14 +1669,12 @@
         <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
         <v>42</v>
@@ -1674,7 +1683,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>USER_EN INT (20),</v>
+        <v>USER_EN VARCHAR (20),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1721,13 +1730,17 @@
       <c r="E12" s="3">
         <v>30</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>USER_ID VARCHAR (30),</v>
@@ -1749,7 +1762,6 @@
       <c r="E13" s="3">
         <v>15</v>
       </c>
-      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="7" t="s">
         <v>42</v>
@@ -1775,7 +1787,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1786,7 +1798,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>USER_SQ_ID VARCHAR (100),</v>
+        <v>USER_SQ_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1830,7 +1842,9 @@
       <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="7" t="s">
@@ -1844,7 +1858,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>USER_MODE_SWITCH INT ,</v>
+        <v>USER_MODE_SWITCH INT (1),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1858,21 +1872,19 @@
         <v>55</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3">
         <v>30</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="3"/>
       <c r="H17" s="7"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>CATEGORY_ID INT (30),</v>
+        <v>CATEGORY_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1886,21 +1898,19 @@
         <v>67</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="3">
         <v>30</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="3"/>
       <c r="H18" s="7"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>HASHTAGS_ID INT (30),</v>
+        <v>HASHTAGS_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1942,7 +1952,9 @@
       <c r="D20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="7" t="s">
@@ -1956,7 +1968,7 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">FAVORITE_SWITCH INT </v>
+        <v>FAVORITE_SWITCH INT (1)</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2136,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610AAE74-CE03-4492-93BA-00282068F3E7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2196,7 +2208,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -2208,7 +2222,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45086</v>
+      </c>
       <c r="F5" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2258,7 +2274,7 @@
         <v>92</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3">
         <v>30</v>
@@ -2271,10 +2287,12 @@
         <v>42</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>USER_SQ_ID INT (30),</v>
+        <v>USER_SQ_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2646,7 +2664,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L10" sqref="L10:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2767,7 +2785,7 @@
         <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
@@ -2780,10 +2798,12 @@
         <v>42</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>POSTER_ID INT (10),</v>
+        <v>POSTER_ID VARCHAR (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2825,7 +2845,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -2839,7 +2859,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>CATEGORY_ID INT (30),</v>
+        <v>CATEGORY_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2881,7 +2901,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3">
         <v>30</v>
@@ -2893,7 +2913,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>HASHTAGS_ID INT (30),</v>
+        <v>HASHTAGS_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2935,7 +2955,7 @@
         <v>84</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3">
         <v>30</v>
@@ -2949,7 +2969,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>ANIMAL_ID INT (30),</v>
+        <v>ANIMAL_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2977,25 +2997,35 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>USER_ID VARCHAR (30)</v>
+        <v>USER_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>USER_NAME_SWITCH INT (1)</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3212,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6F30AC-B4BA-4D3A-9D60-AA40C3589D13}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3334,7 +3364,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3">
         <v>30</v>
@@ -3347,10 +3377,12 @@
         <v>42</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>CATEGORY_ID INT (30),</v>
+        <v>CATEGORY_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3720,515 +3752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3E8A03-6DFB-4332-A545-56CBFC84DAAF}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table HASHTAGS (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3">
-        <v>30</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>HASHTAGS_ID INT (30),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>HASHTAGS_NAME VARCHAR (50)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9E51-C029-4FD3-8261-0F873F6A2A9B}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4273,7 +3798,7 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>45084</v>
       </c>
     </row>
@@ -4282,28 +3807,24 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8">
-        <v>45085</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -4339,7 +3860,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table REPLY (</v>
+        <v>create table HASHTAGS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4347,16 +3868,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>42</v>
@@ -4366,10 +3887,12 @@
         <v>42</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>REPLY_ID INT (10),</v>
+        <v>HASHTAGS_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4377,18 +3900,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
         <v>42</v>
@@ -4397,143 +3920,97 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>POSTER_ID INT (10),</v>
+        <v>HASHTAGS_NAME VARCHAR (50)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3">
-        <v>500</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>REPLY_SENTENCE VARCHAR (500),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>REPLIED_DATE VARCHAR (20),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>USER_NAME_SWITCH INT ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3">
-        <v>30</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L16" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>USER_ID VARCHAR (30),</v>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="3">
-        <v>10</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>ANIMAL_ID VARCHAR (10)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -4550,7 +4027,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L29" si="1">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4568,7 +4045,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4586,7 +4063,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4604,7 +4081,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4622,7 +4099,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4640,7 +4117,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4658,7 +4135,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4676,7 +4153,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4694,7 +4171,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4712,7 +4189,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4730,7 +4207,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4748,7 +4225,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4766,7 +4243,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4778,15 +4255,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D5023F-E6EB-4A9D-889F-6ED7B36FCD0A}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9E51-C029-4FD3-8261-0F873F6A2A9B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4818,7 +4296,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4831,8 +4309,8 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5">
-        <v>45085</v>
+      <c r="E3" s="8">
+        <v>45084</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4840,24 +4318,28 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="8">
+        <v>45085</v>
+      </c>
       <c r="F5" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -4893,7 +4375,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table ANIMAL (</v>
+        <v>create table REPLY (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4901,16 +4383,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>42</v>
@@ -4923,7 +4405,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>ANIMAL_ID INT (30),</v>
+        <v>REPLY_ID VARCHAR (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4931,18 +4413,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="3">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
         <v>42</v>
@@ -4951,97 +4433,145 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>ANIMAL_NAME VARCHAR (50)</v>
+        <v>POSTER_ID VARCHAR (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3">
+        <v>500</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>REPLY_SENTENCE VARCHAR (500),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>REPLIED_DATE VARCHAR (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>USER_NAME_SWITCH INT (1),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>USER_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>ANIMAL_ID VARCHAR (30)</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -5058,7 +4588,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5076,7 +4606,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L17:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5286,16 +4816,15 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EAC25F-D8BF-4CF8-8407-1020998853A2}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D5023F-E6EB-4A9D-889F-6ED7B36FCD0A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5327,7 +4856,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5341,7 +4870,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -5349,7 +4878,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5361,7 +4890,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5402,7 +4931,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table REPORT (</v>
+        <v>create table ANIMAL (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5410,16 +4939,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>42</v>
@@ -5429,10 +4958,12 @@
         <v>42</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>REPORT_ID INT (10),</v>
+        <v>ANIMAL_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5440,51 +4971,45 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>REPLY_ID INT (10),</v>
+        <v>ANIMAL_NAME VARCHAR (50)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="7"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>POSTER_ID INT (10)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5531,6 +5056,521 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EAC25F-D8BF-4CF8-8407-1020998853A2}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table REPORT (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>REPORT_ID VARCHAR (10),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>REPLY_ID VARCHAR (10),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>POSTER_ID VARCHAR (10)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61350E6E-D58F-4752-9574-803D24E833DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9A4797-AA98-4EEB-B466-DE52BA2ED439}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="109">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1544,7 +1544,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="E12" sqref="E12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1725,15 +1725,17 @@
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="H12" s="7" t="s">
         <v>42</v>
       </c>
@@ -1743,7 +1745,7 @@
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>USER_ID VARCHAR (30),</v>
+        <v>USER_ID INT (10),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2664,7 +2666,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:O18"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2983,13 +2985,15 @@
         <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3">
-        <v>30</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="H17" s="7" t="s">
         <v>42</v>
       </c>
@@ -2997,7 +3001,7 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>USER_ID VARCHAR (30),</v>
+        <v>USER_ID INT (10),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3243,7 +3247,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:O11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4263,8 +4267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9E51-C029-4FD3-8261-0F873F6A2A9B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:O16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4404,7 +4408,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L17" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>REPLY_ID VARCHAR (10),</v>
       </c>
     </row>
@@ -4432,7 +4436,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>POSTER_ID VARCHAR (10),</v>
       </c>
     </row>
@@ -4460,7 +4464,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>REPLY_SENTENCE VARCHAR (500),</v>
       </c>
     </row>
@@ -4488,7 +4492,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>REPLIED_DATE VARCHAR (20),</v>
       </c>
     </row>
@@ -4516,7 +4520,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>USER_NAME_SWITCH INT (1),</v>
       </c>
     </row>
@@ -4531,21 +4535,23 @@
         <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3">
-        <v>30</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="H15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>USER_ID VARCHAR (30),</v>
+        <f t="shared" si="0"/>
+        <v>USER_ID INT (10),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4570,7 +4576,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>ANIMAL_ID VARCHAR (30)</v>
       </c>
     </row>
@@ -4588,7 +4594,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4606,7 +4612,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" ref="L17:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L18:L29" si="1">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4624,7 +4630,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4642,7 +4648,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4660,7 +4666,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4678,7 +4684,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4696,7 +4702,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4714,7 +4720,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4732,7 +4738,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4750,7 +4756,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4768,7 +4774,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4786,7 +4792,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4804,7 +4810,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4823,7 +4829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D5023F-E6EB-4A9D-889F-6ED7B36FCD0A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="L10" sqref="L10:O11"/>
     </sheetView>
   </sheetViews>
@@ -5335,7 +5341,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:N12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9A4797-AA98-4EEB-B466-DE52BA2ED439}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4346CE3-129A-444F-808D-C8C81005A06C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="109">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1544,7 +1544,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:G12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2143,6 +2143,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2666,7 +2667,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4267,8 +4268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9E51-C029-4FD3-8261-0F873F6A2A9B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5340,8 +5341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EAC25F-D8BF-4CF8-8407-1020998853A2}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5462,7 +5463,7 @@
         <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
@@ -5470,7 +5471,9 @@
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="H10" s="7" t="s">
         <v>42</v>
       </c>
@@ -5478,7 +5481,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>REPORT_ID VARCHAR (10),</v>
+        <v>REPORT_ID INT (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5492,19 +5495,21 @@
         <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>REPLY_ID VARCHAR (10),</v>
+        <v>REPLY_ID INT (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5518,19 +5523,21 @@
         <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>POSTER_ID VARCHAR (10)</v>
+        <v>POSTER_ID INT (10)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9A4797-AA98-4EEB-B466-DE52BA2ED439}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1424693C-F3D5-42E2-802D-2BDE8D3B1C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="111">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -682,6 +682,23 @@
     <t>重複なし</t>
     <rPh sb="0" eb="2">
       <t>ジュウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動採番</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動採番</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウサイバン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -821,9 +838,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -861,9 +878,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -896,26 +913,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -948,26 +948,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1544,7 +1527,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:G12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1725,10 +1708,10 @@
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
@@ -1740,12 +1723,10 @@
         <v>42</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>USER_ID INT (10),</v>
+        <v>USER_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1789,7 +1770,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1800,7 +1781,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>USER_SQ_ID VARCHAR (30),</v>
+        <v>USER_SQ_ID VARCHAR (1),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1874,10 +1855,10 @@
         <v>55</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="3"/>
@@ -1886,7 +1867,7 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>CATEGORY_ID VARCHAR (30),</v>
+        <v>CATEGORY_ID INT (10),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1900,10 +1881,10 @@
         <v>67</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="3"/>
@@ -1912,7 +1893,7 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>HASHTAGS_ID VARCHAR (30),</v>
+        <v>HASHTAGS_ID INT (10),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2151,7 +2132,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:O11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2279,7 +2260,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>42</v>
@@ -2294,7 +2275,7 @@
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>USER_SQ_ID VARCHAR (30),</v>
+        <v>USER_SQ_ID VARCHAR (1),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2665,8 +2646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C5265-586A-44B4-BE2F-41D12EB6F7F7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2787,11 +2768,9 @@
         <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
@@ -2801,11 +2780,11 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>POSTER_ID VARCHAR (10),</v>
+        <v>POSTER_ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2847,10 +2826,10 @@
         <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2861,7 +2840,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>CATEGORY_ID VARCHAR (30),</v>
+        <v>CATEGORY_ID INT (10),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2903,10 +2882,10 @@
         <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2915,7 +2894,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>HASHTAGS_ID VARCHAR (30),</v>
+        <v>HASHTAGS_ID INT (10),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2985,10 +2964,10 @@
         <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
@@ -3001,7 +2980,7 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>USER_ID INT (10),</v>
+        <v>USER_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3247,7 +3226,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3368,11 +3347,9 @@
         <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3">
-        <v>30</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
@@ -3382,11 +3359,11 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>CATEGORY_ID VARCHAR (30),</v>
+        <v>CATEGORY_ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3757,7 +3734,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:O11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3878,11 +3855,9 @@
         <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3">
-        <v>30</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
@@ -3892,11 +3867,11 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>HASHTAGS_ID VARCHAR (30),</v>
+        <v>HASHTAGS_ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4267,8 +4242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9E51-C029-4FD3-8261-0F873F6A2A9B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4393,11 +4368,9 @@
         <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
@@ -4406,10 +4379,12 @@
         <v>42</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10:L17" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>REPLY_ID VARCHAR (10),</v>
+        <v>REPLY_ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4423,7 +4398,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -4437,7 +4412,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>POSTER_ID VARCHAR (10),</v>
+        <v>POSTER_ID INT (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4535,10 +4510,10 @@
         <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
@@ -4551,7 +4526,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>USER_ID INT (10),</v>
+        <v>USER_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4830,7 +4805,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:O11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4954,7 +4929,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>42</v>
@@ -4969,7 +4944,7 @@
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>ANIMAL_ID VARCHAR (30),</v>
+        <v>ANIMAL_ID VARCHAR (3),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5340,8 +5315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EAC25F-D8BF-4CF8-8407-1020998853A2}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5462,11 +5437,9 @@
         <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
@@ -5475,10 +5448,12 @@
         <v>42</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>REPORT_ID VARCHAR (10),</v>
+        <v>REPORT_ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5492,7 +5467,7 @@
         <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -5504,7 +5479,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>REPLY_ID VARCHAR (10),</v>
+        <v>REPLY_ID INT (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5518,7 +5493,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -5530,7 +5505,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>POSTER_ID VARCHAR (10)</v>
+        <v>POSTER_ID INT (10)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4346CE3-129A-444F-808D-C8C81005A06C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FCDD0C-D317-4BF6-9C02-250A5505AF51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="109">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1543,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1733,9 +1733,7 @@
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
         <v>42</v>
       </c>
@@ -5341,8 +5339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EAC25F-D8BF-4CF8-8407-1020998853A2}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FCDD0C-D317-4BF6-9C02-250A5505AF51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF723CC2-194C-42C5-9C79-ABF421D5CABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="109">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -821,9 +821,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -861,9 +861,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -896,26 +896,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -948,26 +931,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1543,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1725,10 +1691,10 @@
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
@@ -1743,7 +1709,7 @@
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>USER_ID INT (10),</v>
+        <v>USER_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1872,10 +1838,10 @@
         <v>55</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="3"/>
@@ -1884,7 +1850,7 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>CATEGORY_ID VARCHAR (30),</v>
+        <v>CATEGORY_ID INT (10),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1898,10 +1864,10 @@
         <v>67</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="3"/>
@@ -1910,7 +1876,7 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>HASHTAGS_ID VARCHAR (30),</v>
+        <v>HASHTAGS_ID INT (10),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2150,7 +2116,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:O11"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2278,7 +2244,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>42</v>
@@ -2293,7 +2259,7 @@
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>USER_SQ_ID VARCHAR (30),</v>
+        <v>USER_SQ_ID VARCHAR (1),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2665,7 +2631,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2786,15 +2752,15 @@
         <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="H10" s="7" t="s">
         <v>42</v>
       </c>
@@ -2804,7 +2770,7 @@
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>POSTER_ID VARCHAR (10),</v>
+        <v>POSTER_ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2846,10 +2812,10 @@
         <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2860,7 +2826,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>CATEGORY_ID VARCHAR (30),</v>
+        <v>CATEGORY_ID INT (10),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2902,10 +2868,10 @@
         <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2914,7 +2880,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>HASHTAGS_ID VARCHAR (30),</v>
+        <v>HASHTAGS_ID INT (10),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2959,7 +2925,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="3"/>
@@ -2970,7 +2936,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>ANIMAL_ID VARCHAR (30),</v>
+        <v>ANIMAL_ID VARCHAR (3),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2984,15 +2950,12 @@
         <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="H17" s="7" t="s">
         <v>42</v>
       </c>
@@ -3000,7 +2963,7 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>USER_ID INT (10),</v>
+        <v>USER_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3245,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6F30AC-B4BA-4D3A-9D60-AA40C3589D13}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3367,15 +3330,15 @@
         <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3">
-        <v>30</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="H10" s="7" t="s">
         <v>42</v>
       </c>
@@ -3385,7 +3348,7 @@
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>CATEGORY_ID VARCHAR (30),</v>
+        <v>CATEGORY_ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3756,7 +3719,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:O11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3877,15 +3840,15 @@
         <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3">
-        <v>30</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="H10" s="7" t="s">
         <v>42</v>
       </c>
@@ -3895,7 +3858,7 @@
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>HASHTAGS_ID VARCHAR (30),</v>
+        <v>HASHTAGS_ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4267,7 +4230,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4392,15 +4355,15 @@
         <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="H10" s="7" t="s">
         <v>42</v>
       </c>
@@ -4408,7 +4371,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f t="shared" ref="L10:L17" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>REPLY_ID VARCHAR (10),</v>
+        <v>REPLY_ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4422,7 +4385,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -4436,7 +4399,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>POSTER_ID VARCHAR (10),</v>
+        <v>POSTER_ID INT (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4534,10 +4497,10 @@
         <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
@@ -4550,7 +4513,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>USER_ID INT (10),</v>
+        <v>USER_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4829,7 +4792,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:O11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4953,7 +4916,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>42</v>
@@ -4968,7 +4931,7 @@
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>ANIMAL_ID VARCHAR (30),</v>
+        <v>ANIMAL_ID VARCHAR (3),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5340,7 +5303,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5463,9 +5426,7 @@
       <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
@@ -5479,7 +5440,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>REPORT_ID INT (10),</v>
+        <v>REPORT_ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5499,9 +5460,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5527,9 +5486,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF723CC2-194C-42C5-9C79-ABF421D5CABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E3FB74-DD96-4A8A-85D9-15FE281415D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19720" yWindow="50" windowWidth="16090" windowHeight="10800" tabRatio="881" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -635,46 +635,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0:一般
-1:一般モードの管理者
-2:ガチ管理者</t>
-    <rPh sb="2" eb="4">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0:何も指定していない
-1:カテゴリ指定
-2:ハッシュタグ指定
-3:フリーワード指定</t>
-    <rPh sb="2" eb="3">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>USER_INFO</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -682,6 +642,46 @@
     <t>重複なし</t>
     <rPh sb="0" eb="2">
       <t>ジュウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:何も指定していない
+2:カテゴリ指定
+3:ハッシュタグ指定
+4:フリーワード指定</t>
+    <rPh sb="2" eb="3">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:一般
+2:一般モードの管理者
+3:ガチ管理者</t>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>カンリシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -821,9 +821,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -861,9 +861,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -896,9 +896,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -931,9 +948,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1509,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1612,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1705,7 +1739,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -1817,10 +1851,10 @@
         <v>42</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -1927,10 +1961,10 @@
         <v>42</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
@@ -2255,7 +2289,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2766,7 +2800,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -3208,7 +3242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6F30AC-B4BA-4D3A-9D60-AA40C3589D13}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3344,7 +3378,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3854,7 +3888,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -4927,7 +4961,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E3FB74-DD96-4A8A-85D9-15FE281415D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA19F8D1-5141-43B5-848D-92DAC9194F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19720" yWindow="50" windowWidth="16090" windowHeight="10800" tabRatio="881" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="118">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -376,10 +376,6 @@
   </si>
   <si>
     <t>CATEGORY_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HASHTAGS_ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -683,6 +679,46 @@
     <rPh sb="21" eb="24">
       <t>カンリシャ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュタグID1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュタグID2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュタグID3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュタグID4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュタグID5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HASHTAGS_ID1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HASHTAGS_ID2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HASHTAGS_ID3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HASHTAGS_ID4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HASHTAGS_ID5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -821,9 +857,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -861,9 +897,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -896,26 +932,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -948,26 +967,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1175,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1183,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1239,10 +1241,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1294,7 +1296,7 @@
         <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1304,10 +1306,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1317,10 +1319,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1543,7 +1545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -1612,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1739,7 +1741,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -1778,10 +1780,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>41</v>
@@ -1837,7 +1839,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>40</v>
@@ -1854,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -1866,7 +1868,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>55</v>
@@ -1892,10 +1894,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>40</v>
@@ -1918,10 +1920,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>41</v>
@@ -1944,10 +1946,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>40</v>
@@ -1964,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
@@ -2204,7 +2206,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2218,7 +2220,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2269,10 +2271,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
@@ -2289,7 +2291,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2301,10 +2303,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>41</v>
@@ -2662,10 +2664,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C5265-586A-44B4-BE2F-41D12EB6F7F7}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2800,10 +2802,10 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v>POSTER_ID INT ,</v>
       </c>
     </row>
@@ -2840,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>55</v>
@@ -2871,7 +2873,7 @@
         <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>41</v>
@@ -2896,10 +2898,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
@@ -2913,8 +2915,8 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>HASHTAGS_ID INT (10),</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>HASHTAGS_ID1 INT (10),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2922,27 +2924,25 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
-        <v>POSTED_DATE VARCHAR (20),</v>
+        <f t="shared" ref="L15:L18" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v>HASHTAGS_ID2 INT (10),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2950,27 +2950,25 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>ANIMAL_ID VARCHAR (3),</v>
+        <f t="shared" si="0"/>
+        <v>HASHTAGS_ID3 INT (10),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2978,26 +2976,25 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3">
-        <v>30</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="H17" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>USER_ID VARCHAR (30),</v>
+        <v>HASHTAGS_ID4 INT (10),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3005,99 +3002,136 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H18" s="7"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>USER_NAME_SWITCH INT (1)</v>
+        <v>HASHTAGS_ID5 INT (10)</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3">
+        <v>20</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>POSTED_DATE VARCHAR (20),</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f t="shared" ref="L20:L33" si="1">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v>ANIMAL_ID VARCHAR (3),</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="3">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f t="shared" si="1"/>
+        <v>USER_ID VARCHAR (30),</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f t="shared" si="1"/>
+        <v>USER_NAME_SWITCH INT (1)</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -3114,7 +3148,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3132,7 +3166,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3150,7 +3184,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3168,7 +3202,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3186,7 +3220,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3204,7 +3238,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3222,12 +3256,84 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>23</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L34" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3309,7 +3415,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3358,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>55</v>
@@ -3378,7 +3484,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3390,10 +3496,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>41</v>
@@ -3807,7 +3913,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3819,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3868,10 +3974,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>40</v>
@@ -3888,7 +3994,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3900,10 +4006,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>41</v>
@@ -4324,7 +4430,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4383,10 +4489,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>40</v>
@@ -4441,10 +4547,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>41</v>
@@ -4469,10 +4575,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>41</v>
@@ -4497,10 +4603,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
@@ -4555,10 +4661,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>41</v>
@@ -4858,7 +4964,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4880,7 +4986,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4892,7 +4998,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4941,10 +5047,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
@@ -4961,7 +5067,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -4973,10 +5079,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>41</v>
@@ -5452,10 +5558,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>40</v>
@@ -5482,10 +5588,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA19F8D1-5141-43B5-848D-92DAC9194F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ADCB64-4E73-473D-9920-FF5EF10E4E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="881" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19670" yWindow="920" windowWidth="14400" windowHeight="7810" tabRatio="881" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="119">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -719,6 +719,16 @@
   </si>
   <si>
     <t>HASHTAGS_ID5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1：匿名、2:実名</t>
+    <rPh sb="2" eb="4">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジツメイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -857,9 +867,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -897,9 +907,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -932,9 +942,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -967,9 +994,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2666,7 +2710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C5265-586A-44B4-BE2F-41D12EB6F7F7}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -4369,8 +4413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9E51-C029-4FD3-8261-0F873F6A2A9B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4620,7 +4664,9 @@
         <v>42</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
         <v>USER_NAME_SWITCH INT (1),</v>
@@ -4924,6 +4970,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/DB定義書_D3.xlsx
+++ b/doc/DB定義書_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ADCB64-4E73-473D-9920-FF5EF10E4E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14657FAD-8083-4B58-910B-C18E2EDF8736}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19670" yWindow="920" windowWidth="14400" windowHeight="7810" tabRatio="881" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32700" yWindow="1090" windowWidth="7920" windowHeight="9470" tabRatio="881" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -2710,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C5265-586A-44B4-BE2F-41D12EB6F7F7}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4414,7 +4414,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
